--- a/rufus/carriers/lifemap_science/order/purchase_type.xlsx
+++ b/rufus/carriers/lifemap_science/order/purchase_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="7220" windowWidth="31760" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="31760" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>in:product_types_set</t>
   </si>
@@ -69,9 +69,6 @@
     <t>$("Human Embryonic Stem Cell", "Human Embryonic Progenitor")</t>
   </si>
   <si>
-    <t>$in intersection $("Differentiation Kit" "Human Embryonic Progenitor Package" "Growth Media") #&gt; 0</t>
-  </si>
-  <si>
     <t>in:pkg_qty</t>
   </si>
   <si>
@@ -82,13 +79,28 @@
   </si>
   <si>
     <t>out:Handling Fee</t>
+  </si>
+  <si>
+    <t>$("Basal Media")</t>
+  </si>
+  <si>
+    <t>2 day</t>
+  </si>
+  <si>
+    <t>$in intersection $("Differentiation Kit" "Human Embryonic Progenitor Package" "Growth Media" "Basal Media") #&gt; 0</t>
+  </si>
+  <si>
+    <t>in:vendor</t>
+  </si>
+  <si>
+    <t>BioTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +139,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -148,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,8 +175,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -205,16 +233,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -238,6 +296,19 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -261,6 +332,19 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,61 +674,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="85.83203125" customWidth="1"/>
+    <col min="1" max="1" width="98.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="6" width="19.5" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1">
+    <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -652,31 +739,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1500</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>2200</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>4900</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>5678</v>
       </c>
-      <c r="J3" s="5">
-        <v>5900</v>
-      </c>
       <c r="K3" s="5">
         <v>5900</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="5">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -684,184 +774,350 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1500</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2544</v>
       </c>
-      <c r="H4">
-        <v>5900</v>
-      </c>
       <c r="I4">
+        <v>5900</v>
+      </c>
+      <c r="J4">
         <v>6595</v>
-      </c>
-      <c r="J4">
-        <v>6900</v>
       </c>
       <c r="K4">
         <v>6900</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="L4">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2200</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4900</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5678</v>
+      </c>
+      <c r="K5" s="9">
+        <v>5900</v>
+      </c>
+      <c r="L5" s="9">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1563</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2233</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3590</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2544</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5900</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6595</v>
+      </c>
+      <c r="K7" s="6">
+        <v>7436</v>
+      </c>
+      <c r="L7" s="6">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2745</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4565</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F9" s="8">
         <v>1500</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>2200</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I9" s="9">
         <v>4900</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J9" s="9">
         <v>5678</v>
       </c>
-      <c r="J5" s="5">
-        <v>5900</v>
-      </c>
-      <c r="K5" s="5">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="K9" s="9">
+        <v>5900</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" thickBot="1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F10">
         <v>1500</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>2544</v>
       </c>
-      <c r="H6" s="5">
-        <v>5900</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="I10" s="5">
+        <v>5900</v>
+      </c>
+      <c r="J10" s="5">
         <v>6595</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K10" s="5">
         <v>6900</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L10" s="5">
         <v>6900</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="11" spans="1:12" ht="16" thickBot="1">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="F11" s="8">
         <v>1500</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
         <v>2200</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I11" s="9">
         <v>4900</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J11" s="9">
         <v>5678</v>
       </c>
-      <c r="J7" s="5">
-        <v>5900</v>
-      </c>
-      <c r="K7" s="5">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="K11" s="9">
+        <v>5900</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="F12" s="8">
         <v>1500</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
         <v>2200</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I12" s="9">
         <v>4900</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J12" s="9">
         <v>5678</v>
       </c>
-      <c r="J8" s="5">
-        <v>5900</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="K12" s="9">
+        <v>5900</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F13">
         <v>1500</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2544</v>
       </c>
-      <c r="H9">
-        <v>5900</v>
-      </c>
-      <c r="I9">
+      <c r="I13">
+        <v>5900</v>
+      </c>
+      <c r="J13">
         <v>6595</v>
       </c>
-      <c r="J9">
+      <c r="K13">
         <v>6900</v>
       </c>
-      <c r="K9">
+      <c r="L13">
         <v>6900</v>
       </c>
     </row>
